--- a/__Report/Test Plan.xlsx
+++ b/__Report/Test Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BenjaminRoberts(Cred\__OneDrive Sync Issues\__ApprenticeshipRepos\qam3_apply\__Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69424272-BC3F-4DCF-B208-339B8A2B204A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FA856B-5753-4B4F-AE07-604D8C4D2E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{686DB4F9-8ACA-4D1E-90A8-FE34C8385176}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{686DB4F9-8ACA-4D1E-90A8-FE34C8385176}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -44,12 +44,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Test Case</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
     <t>System</t>
   </si>
   <si>
@@ -60,6 +54,89 @@
   </si>
   <si>
     <t>Functional</t>
+  </si>
+  <si>
+    <t>[Existing Customer]</t>
+  </si>
+  <si>
+    <t>[Exclusions]</t>
+  </si>
+  <si>
+    <t>Given a single applicant is applying for a loan
+When the applicant is on the exclusion list
+And the applicants name, current postcode and date of birth match exactly to the exclusion list
+Then that applcant will be declined
+And reason code Dxxx shall be returned to the front end system</t>
+  </si>
+  <si>
+    <t>Given a single applicant is applying for a loan
+When the applicant is an is an existing customer
+And the applicants name, current postcode and date of birth match exactly to the existing customer database
+And ...
+Then that applcant will be declined
+And reason code Dxxx shall be returned to the front end system</t>
+  </si>
+  <si>
+    <t>Given a single applicant is applying for a loan
+When the applicant is an is an existing customer
+And the applicants name, current postcode and date of birth match exactly to the existing customer database
+And …
+Then that applcant will be referred
+And reason code Rxxx shall be returned to the front end system</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Given a single applicant is applying for a loan
+When a single address is given on their application
+And the applicant is not decline on any pre-bureau policy rules
+Then the system will make an HTTP API call to Experian DelphiSelect
+And a successful Response will be recieved
+And the provided address wil be present on the searched addresses in the Delphiselect response</t>
+  </si>
+  <si>
+    <t>Given a single applicant is applying for a loan
+When multiple addresses are given on their application
+And the applicant is not decline on any pre-bureau policy rules
+Then the system will make an HTTP API call to Experian DelphiSelect
+And a successful Response will be recieved
+And the provided address wil be present on the searched addresses in the Delphiselect response</t>
+  </si>
+  <si>
+    <t>Given joint applicants are applying for a loan
+When multiple addresses are given on their application
+And the applicant is not decline on any pre-bureau policy rules
+Then the system will make an HTTP API call to Experian DelphiSelect
+And a successful Response will be recieved
+And the provided address wil be present on the searched addresses in the Delphiselect response</t>
+  </si>
+  <si>
+    <t>DelphiSelect (Quotation)</t>
+  </si>
+  <si>
+    <t>Test Case (Gherkin)</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Existing Customer; Single Applicant; Decline</t>
+  </si>
+  <si>
+    <t>Existing Customer; Single Applicant; Refer</t>
+  </si>
+  <si>
+    <t>Exclusions; Single Applicant; Refer</t>
+  </si>
+  <si>
+    <t>DelphiSelect; Single Applicant; Single address; Success</t>
+  </si>
+  <si>
+    <t>DelphiSelect; Single Applicant; Multi address; Success</t>
+  </si>
+  <si>
+    <t>DelphiSelect; Joint Applicants; Multi address; Success</t>
   </si>
 </sst>
 </file>
@@ -95,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -103,16 +180,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,15 +232,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BC8C78E-554C-40DE-9FBB-F5B669593360}" name="Table1" displayName="Table1" ref="B2:G35" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BC8C78E-554C-40DE-9FBB-F5B669593360}" name="Table1" displayName="Table1" ref="B2:G35" totalsRowShown="0" headerRowDxfId="7" dataDxfId="4">
   <autoFilter ref="B2:G35" xr:uid="{3BC8C78E-554C-40DE-9FBB-F5B669593360}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6171EFE3-FBEA-4C78-BBD5-6599EAF3A3E2}" name="ID" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{A292B9C9-0D7E-4A9B-AC1D-C45D4C23F81C}" name="Class"/>
-    <tableColumn id="3" xr3:uid="{700D0F27-2BDC-4FE5-ADB5-DEC31A20CA27}" name="Type"/>
-    <tableColumn id="4" xr3:uid="{2ED49373-3DA5-4A96-9A6F-316F74FFBD60}" name="Component Under Test (CUT)"/>
-    <tableColumn id="5" xr3:uid="{374521F0-F03C-45B9-ADB3-8511F7CF0B22}" name="Test Case"/>
-    <tableColumn id="6" xr3:uid="{25732C02-D87C-4360-A3F4-29E6C7E58D5E}" name="Expected Result"/>
+    <tableColumn id="1" xr3:uid="{6171EFE3-FBEA-4C78-BBD5-6599EAF3A3E2}" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A292B9C9-0D7E-4A9B-AC1D-C45D4C23F81C}" name="Class" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{700D0F27-2BDC-4FE5-ADB5-DEC31A20CA27}" name="Type" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{2ED49373-3DA5-4A96-9A6F-316F74FFBD60}" name="Component Under Test (CUT)" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{374521F0-F03C-45B9-ADB3-8511F7CF0B22}" name="Test Case (Gherkin)" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{25732C02-D87C-4360-A3F4-29E6C7E58D5E}" name="Tags" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -459,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A1A9D6-54A0-458A-A3A2-6C5D49C49F20}">
-  <dimension ref="B2:G4"/>
+  <dimension ref="B2:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +576,7 @@
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="59.85546875" customWidth="1"/>
-    <col min="7" max="7" width="48.42578125" customWidth="1"/>
+    <col min="7" max="7" width="48.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -480,36 +584,410 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/__Report/Test Plan.xlsx
+++ b/__Report/Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BenjaminRoberts(Cred\__OneDrive Sync Issues\__ApprenticeshipRepos\qam3_apply\__Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FA856B-5753-4B4F-AE07-604D8C4D2E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F10BBCB-C462-487C-BD1C-CFB2EBA82F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{686DB4F9-8ACA-4D1E-90A8-FE34C8385176}"/>
   </bookViews>
@@ -62,56 +62,9 @@
     <t>[Exclusions]</t>
   </si>
   <si>
-    <t>Given a single applicant is applying for a loan
-When the applicant is on the exclusion list
-And the applicants name, current postcode and date of birth match exactly to the exclusion list
-Then that applcant will be declined
-And reason code Dxxx shall be returned to the front end system</t>
-  </si>
-  <si>
-    <t>Given a single applicant is applying for a loan
-When the applicant is an is an existing customer
-And the applicants name, current postcode and date of birth match exactly to the existing customer database
-And ...
-Then that applcant will be declined
-And reason code Dxxx shall be returned to the front end system</t>
-  </si>
-  <si>
-    <t>Given a single applicant is applying for a loan
-When the applicant is an is an existing customer
-And the applicants name, current postcode and date of birth match exactly to the existing customer database
-And …
-Then that applcant will be referred
-And reason code Rxxx shall be returned to the front end system</t>
-  </si>
-  <si>
     <t>Integration</t>
   </si>
   <si>
-    <t>Given a single applicant is applying for a loan
-When a single address is given on their application
-And the applicant is not decline on any pre-bureau policy rules
-Then the system will make an HTTP API call to Experian DelphiSelect
-And a successful Response will be recieved
-And the provided address wil be present on the searched addresses in the Delphiselect response</t>
-  </si>
-  <si>
-    <t>Given a single applicant is applying for a loan
-When multiple addresses are given on their application
-And the applicant is not decline on any pre-bureau policy rules
-Then the system will make an HTTP API call to Experian DelphiSelect
-And a successful Response will be recieved
-And the provided address wil be present on the searched addresses in the Delphiselect response</t>
-  </si>
-  <si>
-    <t>Given joint applicants are applying for a loan
-When multiple addresses are given on their application
-And the applicant is not decline on any pre-bureau policy rules
-Then the system will make an HTTP API call to Experian DelphiSelect
-And a successful Response will be recieved
-And the provided address wil be present on the searched addresses in the Delphiselect response</t>
-  </si>
-  <si>
     <t>DelphiSelect (Quotation)</t>
   </si>
   <si>
@@ -137,14 +90,754 @@
   </si>
   <si>
     <t>DelphiSelect; Joint Applicants; Multi address; Success</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a single applicant is applying for a loan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the applicant is an is an existing customer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the applicants name, current postcode and date of birth match exactly to the existing customer database
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that applcant will be declined
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reason code Dxxx shall be returned to the front end system</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a single applicant is applying for a loan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the applicant is an is an existing customer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the applicants name, current postcode and date of birth match exactly to the existing customer database
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that applcant will be referred
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reason code Rxxx shall be returned to the front end system</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a single applicant is applying for a loan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the applicant is on the exclusion list
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the applicants name, current postcode and date of birth match exactly to the exclusion list
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that applcant will be declined
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reason code Dxxx shall be returned to the front end system</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a single applicant is applying for a loan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a single address is given on their application
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the applicant is not decline on any pre-bureau policy rules
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the system will make an HTTP API call to Experian DelphiSelect
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a successful Response will be recieved
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the provided address wil be present on the searched addresses in the Delphiselect response</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a single applicant is applying for a loan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> multiple addresses are given on their application
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the applicant is not decline on any pre-bureau policy rules
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the system will make an HTTP API call to Experian DelphiSelect
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a successful Response will be recieved
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the provided address wil be present on the searched addresses in the Delphiselect response</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> joint applicants are applying for a loan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> multiple addresses are given on their application
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the applicant is not decline on any pre-bureau policy rules
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the system will make an HTTP API call to Experian DelphiSelect
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a successful Response will be recieved
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the provided address wil be present on the searched addresses in the Delphiselect response</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -195,6 +888,12 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -204,16 +903,10 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -232,15 +925,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BC8C78E-554C-40DE-9FBB-F5B669593360}" name="Table1" displayName="Table1" ref="B2:G35" totalsRowShown="0" headerRowDxfId="7" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BC8C78E-554C-40DE-9FBB-F5B669593360}" name="Table1" displayName="Table1" ref="B2:G35" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B2:G35" xr:uid="{3BC8C78E-554C-40DE-9FBB-F5B669593360}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6171EFE3-FBEA-4C78-BBD5-6599EAF3A3E2}" name="ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{A292B9C9-0D7E-4A9B-AC1D-C45D4C23F81C}" name="Class" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{700D0F27-2BDC-4FE5-ADB5-DEC31A20CA27}" name="Type" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{2ED49373-3DA5-4A96-9A6F-316F74FFBD60}" name="Component Under Test (CUT)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6171EFE3-FBEA-4C78-BBD5-6599EAF3A3E2}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A292B9C9-0D7E-4A9B-AC1D-C45D4C23F81C}" name="Class" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{700D0F27-2BDC-4FE5-ADB5-DEC31A20CA27}" name="Type" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{2ED49373-3DA5-4A96-9A6F-316F74FFBD60}" name="Component Under Test (CUT)" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{374521F0-F03C-45B9-ADB3-8511F7CF0B22}" name="Test Case (Gherkin)" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{25732C02-D87C-4360-A3F4-29E6C7E58D5E}" name="Tags" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{25732C02-D87C-4360-A3F4-29E6C7E58D5E}" name="Tags" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -565,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A1A9D6-54A0-458A-A3A2-6C5D49C49F20}">
   <dimension ref="B2:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,13 +1286,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -613,13 +1306,13 @@
         <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -633,10 +1326,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="90" x14ac:dyDescent="0.25">
@@ -653,10 +1346,10 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="120" x14ac:dyDescent="0.25">
@@ -667,16 +1360,16 @@
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="120" x14ac:dyDescent="0.25">
@@ -687,16 +1380,16 @@
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="120" x14ac:dyDescent="0.25">
@@ -707,16 +1400,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
